--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB593A48-FCEE-4329-8E81-B11FF8133934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -268,30 +261,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RmkNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo,RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustRmk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,OpDate,RmkNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND OpDate =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.4.7 by eric
+轉換原日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpDate,RmkNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -372,7 +386,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +397,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -444,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,11 +527,14 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,6 +625,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -637,6 +677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,11 +869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -836,7 +893,7 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>44</v>
@@ -849,7 +906,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>23</v>
@@ -864,7 +921,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -965,162 +1022,174 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="21">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E12" s="18">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="18">
+        <v>120</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
@@ -1618,6 +1687,15 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1636,12 +1714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1670,6 +1748,9 @@
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1684,10 +1765,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB593A48-FCEE-4329-8E81-B11FF8133934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C622269A-9997-4164-952E-5780CA2A81F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -273,33 +273,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>作業日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,OpDate,RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo = ,AND OpDate =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022.4.7 by eric
-轉換原日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpDate,RmkNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>CustNo,RmkNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,14 +505,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -888,10 +871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
@@ -903,8 +886,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
@@ -916,12 +899,12 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -929,10 +912,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
@@ -944,10 +927,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
@@ -957,10 +940,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
@@ -970,10 +953,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1022,174 +1005,162 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="21">
-        <v>8</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" s="18">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="18">
-        <v>120</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18">
-        <v>6</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
@@ -1687,15 +1658,6 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1717,9 +1679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1711,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C622269A-9997-4164-952E-5780CA2A81F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF6F11D-F6FB-463B-B5D9-501B61C4DC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,10 +271,6 @@
   <si>
     <t>Key ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND OpDate =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,RmkNo</t>
@@ -904,7 +900,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1088,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>17</v>
@@ -1681,7 +1677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1727,7 +1723,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF6F11D-F6FB-463B-B5D9-501B61C4DC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -186,9 +185,6 @@
     <t>備忘錄代碼</t>
   </si>
   <si>
-    <t>備忘錄說明</t>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,13 +270,22 @@
   </si>
   <si>
     <t>CreateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備忘錄說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+301:309整批入帳備忘說明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -513,7 +514,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,23 +605,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -656,23 +640,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -872,10 +839,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -885,7 +852,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>23</v>
@@ -900,7 +867,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -913,10 +880,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -928,7 +895,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -941,7 +908,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -987,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -1006,13 +973,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="18">
         <v>3</v>
@@ -1025,13 +992,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="18">
         <v>32</v>
@@ -1039,12 +1006,12 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>30</v>
@@ -1057,7 +1024,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1065,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -1084,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>17</v>
@@ -1672,10 +1639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1701,10 +1668,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -1712,21 +1679,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/CustRmk.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB294591-084E-4212-A14D-EC5A9F33361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,9 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -280,17 +288,20 @@
     <t>共用代碼檔
 301:309整批入帳備忘說明</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateDate DESC, RmkNo ASC </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -298,7 +309,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -514,7 +525,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,6 +616,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -640,6 +668,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,109 +860,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="27.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="15"/>
@@ -926,9 +971,9 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -949,18 +994,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="7" customFormat="1">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -968,18 +1013,18 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="18">
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="18">
         <v>3</v>
@@ -987,18 +1032,18 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="18">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="18">
         <v>32</v>
@@ -1006,15 +1051,15 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="18">
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -1024,18 +1069,18 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="18">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -1046,15 +1091,15 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="18">
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>12</v>
@@ -1063,15 +1108,15 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="18">
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1082,15 +1127,15 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="18">
         <v>9</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>12</v>
@@ -1099,7 +1144,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="18">
         <v>10</v>
       </c>
@@ -1107,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
@@ -1118,7 +1163,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1127,7 +1172,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1136,7 +1181,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1145,7 +1190,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1154,7 +1199,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1163,7 +1208,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1172,7 +1217,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1181,7 +1226,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1190,7 +1235,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1199,7 +1244,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1208,7 +1253,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1217,7 +1262,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1226,7 +1271,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1235,7 +1280,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1244,7 +1289,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1253,7 +1298,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1262,7 +1307,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1271,7 +1316,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1280,7 +1325,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1289,7 +1334,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1298,7 +1343,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1307,7 +1352,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1316,7 +1361,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1325,7 +1370,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1334,7 +1379,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1343,7 +1388,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1352,7 +1397,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1361,7 +1406,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1370,7 +1415,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1379,7 +1424,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -1388,7 +1433,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1397,7 +1442,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -1406,7 +1451,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -1415,7 +1460,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -1424,7 +1469,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -1433,7 +1478,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -1442,7 +1487,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -1451,7 +1496,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -1460,7 +1505,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -1469,7 +1514,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -1478,7 +1523,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1487,7 +1532,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -1496,7 +1541,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -1505,7 +1550,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -1514,7 +1559,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -1523,7 +1568,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -1532,7 +1577,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -1541,7 +1586,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -1550,7 +1595,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -1559,7 +1604,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -1568,7 +1613,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -1577,7 +1622,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -1586,7 +1631,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -1595,7 +1640,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -1604,7 +1649,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -1613,7 +1658,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -1639,23 +1684,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1666,34 +1711,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
